--- a/data/0. old data/0. raw/2016/companies/vifor.xlsx
+++ b/data/0. old data/0. raw/2016/companies/vifor.xlsx
@@ -9582,15 +9582,6 @@
         <sz val="11"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>SfwF am Stadtpitai Triemli, Fonds Frauenklinik</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>Birmensdorferstrasse 501</t>
     </r>
   </si>
@@ -9600,24 +9591,6 @@
         <sz val="11"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>SfwF am Stadtpitai Triemli, Fonds Gastroenterologie</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>SfwF am Stadtpitai Triemli, Fonds Onkologie / Hämatologie</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>SGAIM - Schweizerische Gesellschaft für Allgemeine Innere Medizin</t>
     </r>
   </si>
@@ -10082,6 +10055,33 @@
   </si>
   <si>
     <t>vifor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>SfwF am Stadtspital Triemli, Fonds Onkologie / Hämatologie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>SfwF am Stadtspital Triemli, Fonds Gastroenterologie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>SfwF am Stadtspital Triemli, Fonds Frauenklinik</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -11145,9 +11145,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N867"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A529" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A474" sqref="A474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -25204,7 +25204,7 @@
     </row>
     <row r="473" spans="1:13" s="7" customFormat="1">
       <c r="A473" s="9" t="s">
-        <v>1082</v>
+        <v>1148</v>
       </c>
       <c r="B473" s="9" t="s">
         <v>42</v>
@@ -25213,7 +25213,7 @@
         <v>814</v>
       </c>
       <c r="D473" s="9" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E473" s="6"/>
       <c r="F473" s="26"/>
@@ -25233,7 +25233,7 @@
     </row>
     <row r="474" spans="1:13" s="7" customFormat="1">
       <c r="A474" s="9" t="s">
-        <v>1084</v>
+        <v>1147</v>
       </c>
       <c r="B474" s="9" t="s">
         <v>42</v>
@@ -25262,7 +25262,7 @@
     </row>
     <row r="475" spans="1:13" s="7" customFormat="1">
       <c r="A475" s="9" t="s">
-        <v>1085</v>
+        <v>1146</v>
       </c>
       <c r="B475" s="9" t="s">
         <v>42</v>
@@ -25291,7 +25291,7 @@
     </row>
     <row r="476" spans="1:13" s="7" customFormat="1">
       <c r="A476" s="9" t="s">
-        <v>1085</v>
+        <v>1146</v>
       </c>
       <c r="B476" s="9" t="s">
         <v>42</v>
@@ -25349,7 +25349,7 @@
     </row>
     <row r="478" spans="1:13" s="7" customFormat="1">
       <c r="A478" s="9" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B478" s="9" t="s">
         <v>51</v>
@@ -25436,7 +25436,7 @@
     </row>
     <row r="481" spans="1:13" s="7" customFormat="1">
       <c r="A481" s="9" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B481" s="29" t="s">
         <v>1023</v>
@@ -25494,7 +25494,7 @@
     </row>
     <row r="483" spans="1:13" s="7" customFormat="1">
       <c r="A483" s="9" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B483" s="9" t="s">
         <v>42</v>
@@ -25503,7 +25503,7 @@
         <v>814</v>
       </c>
       <c r="D483" s="9" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E483" s="6"/>
       <c r="F483" s="26"/>
@@ -25523,7 +25523,7 @@
     </row>
     <row r="484" spans="1:13" s="7" customFormat="1">
       <c r="A484" s="9" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B484" s="9" t="s">
         <v>757</v>
@@ -25581,7 +25581,7 @@
     </row>
     <row r="486" spans="1:13" s="7" customFormat="1">
       <c r="A486" s="6" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B486" s="6" t="s">
         <v>332</v>
@@ -25590,7 +25590,7 @@
         <v>814</v>
       </c>
       <c r="D486" s="6" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E486" s="6"/>
       <c r="F486" s="26"/>
@@ -25668,7 +25668,7 @@
     </row>
     <row r="489" spans="1:13" s="7" customFormat="1">
       <c r="A489" s="9" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B489" s="9" t="s">
         <v>766</v>
@@ -25697,7 +25697,7 @@
     </row>
     <row r="490" spans="1:13" s="7" customFormat="1">
       <c r="A490" s="9" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B490" s="9" t="s">
         <v>826</v>
@@ -25726,7 +25726,7 @@
     </row>
     <row r="491" spans="1:13" s="7" customFormat="1">
       <c r="A491" s="9" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B491" s="6" t="s">
         <v>51</v>
@@ -25755,7 +25755,7 @@
     </row>
     <row r="492" spans="1:13" s="7" customFormat="1">
       <c r="A492" s="9" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B492" s="9" t="s">
         <v>362</v>
@@ -25764,7 +25764,7 @@
         <v>814</v>
       </c>
       <c r="D492" s="9" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E492" s="6"/>
       <c r="F492" s="26"/>
@@ -25784,7 +25784,7 @@
     </row>
     <row r="493" spans="1:13" s="7" customFormat="1">
       <c r="A493" s="9" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B493" s="9" t="s">
         <v>362</v>
@@ -25793,7 +25793,7 @@
         <v>814</v>
       </c>
       <c r="D493" s="9" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="E493" s="6"/>
       <c r="F493" s="26"/>
@@ -25873,7 +25873,7 @@
     </row>
     <row r="496" spans="1:13" s="7" customFormat="1">
       <c r="A496" s="6" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B496" s="6" t="s">
         <v>773</v>
@@ -25882,7 +25882,7 @@
         <v>814</v>
       </c>
       <c r="D496" s="6" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="E496" s="6"/>
       <c r="F496" s="26"/>
@@ -25902,7 +25902,7 @@
     </row>
     <row r="497" spans="1:13" s="7" customFormat="1">
       <c r="A497" s="9" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B497" s="9" t="s">
         <v>292</v>
@@ -25989,7 +25989,7 @@
     </row>
     <row r="500" spans="1:13" s="7" customFormat="1">
       <c r="A500" s="9" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B500" s="9" t="s">
         <v>778</v>
@@ -25998,7 +25998,7 @@
         <v>814</v>
       </c>
       <c r="D500" s="9" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E500" s="6"/>
       <c r="F500" s="26"/>
@@ -26018,7 +26018,7 @@
     </row>
     <row r="501" spans="1:13" s="7" customFormat="1">
       <c r="A501" s="9" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B501" s="9" t="s">
         <v>48</v>
@@ -26027,7 +26027,7 @@
         <v>814</v>
       </c>
       <c r="D501" s="9" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="E501" s="6"/>
       <c r="F501" s="26"/>
@@ -26056,7 +26056,7 @@
         <v>814</v>
       </c>
       <c r="D502" s="6" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E502" s="6"/>
       <c r="F502" s="26"/>
@@ -26076,7 +26076,7 @@
     </row>
     <row r="503" spans="1:13" s="7" customFormat="1">
       <c r="A503" s="9" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B503" s="9" t="s">
         <v>42</v>
@@ -26085,7 +26085,7 @@
         <v>814</v>
       </c>
       <c r="D503" s="6" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E503" s="6"/>
       <c r="F503" s="26"/>
@@ -26105,7 +26105,7 @@
     </row>
     <row r="504" spans="1:13" s="7" customFormat="1">
       <c r="A504" s="9" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B504" s="9" t="s">
         <v>48</v>
@@ -26192,7 +26192,7 @@
     </row>
     <row r="507" spans="1:13" s="7" customFormat="1">
       <c r="A507" s="9" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B507" s="9" t="s">
         <v>51</v>
@@ -26201,7 +26201,7 @@
         <v>814</v>
       </c>
       <c r="D507" s="9" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="E507" s="6"/>
       <c r="F507" s="26"/>
@@ -26221,7 +26221,7 @@
     </row>
     <row r="508" spans="1:13" s="7" customFormat="1">
       <c r="A508" s="9" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B508" s="9" t="s">
         <v>785</v>
@@ -26230,7 +26230,7 @@
         <v>814</v>
       </c>
       <c r="D508" s="9" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="E508" s="6"/>
       <c r="F508" s="26"/>
@@ -26259,7 +26259,7 @@
         <v>814</v>
       </c>
       <c r="D509" s="9" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="E509" s="6"/>
       <c r="F509" s="26"/>
@@ -26308,10 +26308,10 @@
     </row>
     <row r="511" spans="1:13" s="7" customFormat="1">
       <c r="A511" s="6" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B511" s="6" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C511" s="16" t="s">
         <v>814</v>
@@ -26424,7 +26424,7 @@
     </row>
     <row r="515" spans="1:13" s="7" customFormat="1">
       <c r="A515" s="9" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B515" s="9" t="s">
         <v>793</v>
@@ -26433,7 +26433,7 @@
         <v>814</v>
       </c>
       <c r="D515" s="9" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="E515" s="6"/>
       <c r="F515" s="26"/>
@@ -26482,7 +26482,7 @@
     </row>
     <row r="517" spans="1:13" s="7" customFormat="1">
       <c r="A517" s="9" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B517" s="9" t="s">
         <v>48</v>
@@ -26491,7 +26491,7 @@
         <v>814</v>
       </c>
       <c r="D517" s="9" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="E517" s="6"/>
       <c r="F517" s="26"/>
@@ -26520,7 +26520,7 @@
         <v>814</v>
       </c>
       <c r="D518" s="9" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="E518" s="6"/>
       <c r="F518" s="26"/>
@@ -26549,7 +26549,7 @@
         <v>814</v>
       </c>
       <c r="D519" s="9" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="E519" s="6"/>
       <c r="F519" s="26"/>
@@ -26578,7 +26578,7 @@
         <v>814</v>
       </c>
       <c r="D520" s="9" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="E520" s="6"/>
       <c r="F520" s="26"/>
@@ -26598,7 +26598,7 @@
     </row>
     <row r="521" spans="1:13" s="7" customFormat="1">
       <c r="A521" s="9" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B521" s="9" t="s">
         <v>48</v>
@@ -26607,7 +26607,7 @@
         <v>814</v>
       </c>
       <c r="D521" s="9" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="E521" s="6"/>
       <c r="F521" s="26"/>
@@ -26629,7 +26629,7 @@
     </row>
     <row r="522" spans="1:13" s="7" customFormat="1">
       <c r="A522" s="9" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B522" s="9" t="s">
         <v>48</v>
@@ -26658,7 +26658,7 @@
     </row>
     <row r="523" spans="1:13" s="7" customFormat="1">
       <c r="A523" s="9" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B523" s="9" t="s">
         <v>48</v>
@@ -26667,7 +26667,7 @@
         <v>814</v>
       </c>
       <c r="D523" s="9" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="E523" s="6"/>
       <c r="F523" s="26"/>
@@ -26687,7 +26687,7 @@
     </row>
     <row r="524" spans="1:13" s="7" customFormat="1">
       <c r="A524" s="9" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B524" s="9" t="s">
         <v>48</v>
@@ -26716,7 +26716,7 @@
     </row>
     <row r="525" spans="1:13" s="7" customFormat="1">
       <c r="A525" s="9" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B525" s="9" t="s">
         <v>48</v>
@@ -26745,7 +26745,7 @@
     </row>
     <row r="526" spans="1:13" s="7" customFormat="1">
       <c r="A526" s="9" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B526" s="9" t="s">
         <v>42</v>
@@ -26754,7 +26754,7 @@
         <v>814</v>
       </c>
       <c r="D526" s="9" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E526" s="6"/>
       <c r="F526" s="26"/>
@@ -26776,7 +26776,7 @@
     </row>
     <row r="527" spans="1:13" s="7" customFormat="1">
       <c r="A527" s="9" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B527" s="9" t="s">
         <v>42</v>
@@ -26805,7 +26805,7 @@
     </row>
     <row r="528" spans="1:13" s="7" customFormat="1">
       <c r="A528" s="9" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B528" s="9" t="s">
         <v>42</v>
@@ -26814,7 +26814,7 @@
         <v>814</v>
       </c>
       <c r="D528" s="9" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="E528" s="6"/>
       <c r="F528" s="26"/>
@@ -26834,7 +26834,7 @@
     </row>
     <row r="529" spans="1:13" s="7" customFormat="1">
       <c r="A529" s="9" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B529" s="9" t="s">
         <v>42</v>
@@ -26843,7 +26843,7 @@
         <v>814</v>
       </c>
       <c r="D529" s="9" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="E529" s="6"/>
       <c r="F529" s="26"/>
@@ -26863,7 +26863,7 @@
     </row>
     <row r="530" spans="1:13" s="7" customFormat="1">
       <c r="A530" s="9" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B530" s="9" t="s">
         <v>42</v>
@@ -26872,7 +26872,7 @@
         <v>814</v>
       </c>
       <c r="D530" s="9" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E530" s="6"/>
       <c r="F530" s="26"/>
@@ -26892,7 +26892,7 @@
     </row>
     <row r="531" spans="1:13" s="7" customFormat="1">
       <c r="A531" s="9" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B531" s="9" t="s">
         <v>42</v>
@@ -26901,7 +26901,7 @@
         <v>814</v>
       </c>
       <c r="D531" s="9" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E531" s="6"/>
       <c r="F531" s="26"/>
@@ -26921,7 +26921,7 @@
     </row>
     <row r="532" spans="1:13" s="7" customFormat="1">
       <c r="A532" s="9" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B532" s="9" t="s">
         <v>42</v>
@@ -26930,7 +26930,7 @@
         <v>814</v>
       </c>
       <c r="D532" s="9" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E532" s="6"/>
       <c r="F532" s="26"/>
@@ -26950,7 +26950,7 @@
     </row>
     <row r="533" spans="1:13" s="7" customFormat="1">
       <c r="A533" s="9" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B533" s="9" t="s">
         <v>42</v>
@@ -26959,7 +26959,7 @@
         <v>814</v>
       </c>
       <c r="D533" s="9" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="E533" s="6"/>
       <c r="F533" s="26"/>
@@ -26979,7 +26979,7 @@
     </row>
     <row r="534" spans="1:13" s="7" customFormat="1">
       <c r="A534" s="9" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B534" s="9" t="s">
         <v>42</v>
@@ -26988,7 +26988,7 @@
         <v>814</v>
       </c>
       <c r="D534" s="9" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E534" s="6"/>
       <c r="F534" s="26"/>
@@ -27008,7 +27008,7 @@
     </row>
     <row r="535" spans="1:13" s="7" customFormat="1">
       <c r="A535" s="9" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B535" s="9" t="s">
         <v>42</v>
@@ -27017,7 +27017,7 @@
         <v>814</v>
       </c>
       <c r="D535" s="9" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="E535" s="6"/>
       <c r="F535" s="26"/>
@@ -27037,7 +27037,7 @@
     </row>
     <row r="536" spans="1:13" s="7" customFormat="1">
       <c r="A536" s="9" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="B536" s="16" t="s">
         <v>915</v>
@@ -27066,7 +27066,7 @@
     </row>
     <row r="537" spans="1:13" s="7" customFormat="1">
       <c r="A537" s="9" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B537" s="9" t="s">
         <v>51</v>
@@ -27075,7 +27075,7 @@
         <v>814</v>
       </c>
       <c r="D537" s="9" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="E537" s="6"/>
       <c r="F537" s="26"/>
@@ -27124,7 +27124,7 @@
     </row>
     <row r="539" spans="1:13" s="7" customFormat="1">
       <c r="A539" s="9" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B539" s="9" t="s">
         <v>42</v>
@@ -27191,7 +27191,7 @@
         <v>814</v>
       </c>
       <c r="D541" s="9" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="E541" s="6"/>
       <c r="F541" s="26"/>
@@ -27240,7 +27240,7 @@
     </row>
     <row r="543" spans="1:13" s="7" customFormat="1">
       <c r="A543" s="9" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B543" s="9" t="s">
         <v>810</v>
@@ -27307,7 +27307,7 @@
         <v>814</v>
       </c>
       <c r="D545" s="6" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="E545" s="6"/>
       <c r="F545" s="26"/>
@@ -27722,7 +27722,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B2">
         <v>2016</v>
@@ -27745,7 +27745,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -27768,7 +27768,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B4">
         <v>2016</v>
@@ -27791,7 +27791,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B5">
         <v>2016</v>
@@ -27806,7 +27806,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B6">
         <v>2016</v>
@@ -27824,7 +27824,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B7">
         <v>2016</v>
@@ -27847,7 +27847,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B8">
         <v>2016</v>
@@ -27865,7 +27865,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B9">
         <v>2016</v>
@@ -27883,7 +27883,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B10">
         <v>2016</v>
